--- a/database/industries/darou/dekapsul/product/quarterly.xlsx
+++ b/database/industries/darou/dekapsul/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\darou\dekapsul\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dekapsul\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF4ACF5-272D-4655-851F-EF6B57D8A76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="26">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دکپسول-تولید ژلاتین کپسول ایران</t>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر / تخفیفات</t>
   </si>
   <si>
@@ -85,6 +86,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>عدد / ریال</t>
@@ -99,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,7 +273,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -281,7 +285,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -328,6 +332,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -363,6 +384,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,17 +552,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -534,7 +572,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,7 +584,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -558,7 +596,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -568,7 +606,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -580,7 +618,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -592,7 +630,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -602,7 +640,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -624,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -634,20 +672,20 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>11</v>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
@@ -656,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -665,44 +703,44 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1747522533</v>
+        <v>1602405913</v>
       </c>
       <c r="F11" s="11">
-        <v>1602405913</v>
+        <v>1461425094</v>
       </c>
       <c r="G11" s="11">
-        <v>1461425094</v>
+        <v>1647975740</v>
       </c>
       <c r="H11" s="11">
-        <v>1647975740</v>
+        <v>1633774747</v>
       </c>
       <c r="I11" s="11">
-        <v>1633774747</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1592843945</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>1747522533</v>
+        <v>1602405913</v>
       </c>
       <c r="F12" s="13">
-        <v>1602405913</v>
+        <v>1461425094</v>
       </c>
       <c r="G12" s="13">
-        <v>1461425094</v>
+        <v>1647975740</v>
       </c>
       <c r="H12" s="13">
-        <v>1647975740</v>
+        <v>1633774747</v>
       </c>
       <c r="I12" s="13">
-        <v>1633774747</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1592843945</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -712,7 +750,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -722,7 +760,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -732,7 +770,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
@@ -754,7 +792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -764,7 +802,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
@@ -788,20 +826,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
-        <v>0</v>
+      <c r="E19" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>11</v>
+      <c r="G19" s="11">
+        <v>0</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
@@ -810,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
@@ -825,27 +863,27 @@
         <v>11</v>
       </c>
       <c r="G20" s="9">
-        <v>1364693200</v>
+        <v>1630766000</v>
       </c>
       <c r="H20" s="9">
-        <v>1630766000</v>
+        <v>1627185900</v>
       </c>
       <c r="I20" s="9">
-        <v>1627185900</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1591083500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>1715422250</v>
-      </c>
-      <c r="F21" s="11">
         <v>1632643800</v>
       </c>
+      <c r="F21" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="G21" s="11" t="s">
         <v>11</v>
       </c>
@@ -856,29 +894,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>1715422250</v>
+        <v>1632643800</v>
       </c>
       <c r="F22" s="13">
-        <v>1632643800</v>
+        <v>0</v>
       </c>
       <c r="G22" s="13">
-        <v>1364693200</v>
+        <v>1630766000</v>
       </c>
       <c r="H22" s="13">
-        <v>1630766000</v>
+        <v>1627185900</v>
       </c>
       <c r="I22" s="13">
-        <v>1627185900</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1591083500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -888,7 +926,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -898,7 +936,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -908,7 +946,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
@@ -930,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -940,7 +978,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
@@ -964,7 +1002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>10</v>
       </c>
@@ -972,14 +1010,14 @@
         <v>19</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="11">
-        <v>0</v>
+      <c r="E29" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>11</v>
+      <c r="G29" s="11">
+        <v>0</v>
       </c>
       <c r="H29" s="11">
         <v>0</v>
@@ -988,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>12</v>
       </c>
@@ -997,44 +1035,44 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>839829</v>
-      </c>
-      <c r="F30" s="9">
         <v>1020359</v>
       </c>
+      <c r="F30" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G30" s="9">
-        <v>848430</v>
+        <v>1442520</v>
       </c>
       <c r="H30" s="9">
-        <v>1442520</v>
+        <v>1440442</v>
       </c>
       <c r="I30" s="9">
-        <v>1440442</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1404910</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>839829</v>
+        <v>1020359</v>
       </c>
       <c r="F31" s="15">
-        <v>1020359</v>
+        <v>0</v>
       </c>
       <c r="G31" s="15">
-        <v>848430</v>
+        <v>1442520</v>
       </c>
       <c r="H31" s="15">
-        <v>1442520</v>
+        <v>1440442</v>
       </c>
       <c r="I31" s="15">
-        <v>1440442</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1404910</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1044,7 +1082,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1054,7 +1092,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1064,7 +1102,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
@@ -1086,7 +1124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1096,7 +1134,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>16</v>
       </c>
@@ -1120,7 +1158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>10</v>
       </c>
@@ -1144,31 +1182,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>490</v>
+        <v>625</v>
       </c>
       <c r="F39" s="9">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G39" s="9">
-        <v>622</v>
+        <v>885</v>
       </c>
       <c r="H39" s="9">
         <v>885</v>
       </c>
       <c r="I39" s="9">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1178,7 +1216,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1188,7 +1226,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1198,9 +1236,9 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1220,7 +1258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1230,7 +1268,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>16</v>
       </c>
@@ -1254,7 +1292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>10</v>
       </c>
@@ -1262,14 +1300,14 @@
         <v>19</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>11</v>
+      <c r="E46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
       </c>
       <c r="H46" s="11">
         <v>0</v>
@@ -1278,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>12</v>
       </c>
@@ -1287,44 +1325,44 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>-442826</v>
+        <v>-438367</v>
       </c>
       <c r="F47" s="9">
-        <v>-438367</v>
+        <v>-381522</v>
       </c>
       <c r="G47" s="9">
-        <v>-381522</v>
+        <v>-549891</v>
       </c>
       <c r="H47" s="9">
-        <v>-549891</v>
+        <v>-476995</v>
       </c>
       <c r="I47" s="9">
-        <v>-476995</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-614024</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
-        <v>-442826</v>
+        <v>-438367</v>
       </c>
       <c r="F48" s="15">
-        <v>-438367</v>
+        <v>-381522</v>
       </c>
       <c r="G48" s="15">
-        <v>-381522</v>
+        <v>-549891</v>
       </c>
       <c r="H48" s="15">
-        <v>-549891</v>
+        <v>-476995</v>
       </c>
       <c r="I48" s="15">
-        <v>-476995</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-614024</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1334,7 +1372,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1344,7 +1382,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1354,9 +1392,9 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1376,7 +1414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1386,7 +1424,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>16</v>
       </c>
@@ -1410,7 +1448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>10</v>
       </c>
@@ -1418,14 +1456,14 @@
         <v>19</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11">
-        <v>0</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>11</v>
+      <c r="E55" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
       </c>
       <c r="H55" s="11">
         <v>0</v>
@@ -1434,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>12</v>
       </c>
@@ -1443,41 +1481,41 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
-        <v>397001</v>
+        <v>581993</v>
       </c>
       <c r="F56" s="9">
-        <v>581993</v>
+        <v>466908</v>
       </c>
       <c r="G56" s="9">
-        <v>466908</v>
+        <v>892629</v>
       </c>
       <c r="H56" s="9">
-        <v>892629</v>
+        <v>963447</v>
       </c>
       <c r="I56" s="9">
-        <v>963447</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>790886</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>397001</v>
+        <v>581993</v>
       </c>
       <c r="F57" s="15">
-        <v>581993</v>
+        <v>466908</v>
       </c>
       <c r="G57" s="15">
-        <v>466908</v>
+        <v>892629</v>
       </c>
       <c r="H57" s="15">
-        <v>892629</v>
+        <v>963447</v>
       </c>
       <c r="I57" s="15">
-        <v>963447</v>
+        <v>790886</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/dekapsul/product/quarterly.xlsx
+++ b/database/industries/darou/dekapsul/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dekapsul\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF4ACF5-272D-4655-851F-EF6B57D8A76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E14967B-BFC6-42D4-94CC-7863AE3A489A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="31">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -553,16 +568,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I57"/>
+  <dimension ref="B1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -571,8 +586,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,8 +603,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -595,8 +620,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -605,8 +635,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -617,8 +652,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -629,8 +669,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -639,8 +684,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -661,8 +711,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -671,76 +736,126 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>1295484990</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1950409450</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1518329270</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1482260280</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1747522533</v>
+      </c>
+      <c r="J11" s="11">
         <v>1602405913</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>1461425094</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>1647975740</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>1633774747</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>1592843945</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>1295484990</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1950409450</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1518329270</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1482260280</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1747522533</v>
+      </c>
+      <c r="J12" s="13">
         <v>1602405913</v>
       </c>
-      <c r="F12" s="13">
+      <c r="K12" s="13">
         <v>1461425094</v>
       </c>
-      <c r="G12" s="13">
+      <c r="L12" s="13">
         <v>1647975740</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>1633774747</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>1592843945</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -749,8 +864,13 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -759,8 +879,13 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -769,10 +894,15 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -791,8 +921,23 @@
       <c r="I16" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -801,122 +946,202 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>11</v>
+      <c r="E18" s="9">
+        <v>-850000</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>-1594000</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>11</v>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
+      <c r="H19" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>11</v>
+      <c r="E20" s="9">
+        <v>1650180500</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1625067530</v>
       </c>
       <c r="G20" s="9">
+        <v>1380570350</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1554315700</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1632643800</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1364693200</v>
+      </c>
+      <c r="L20" s="9">
         <v>1630766000</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>1627185900</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>1591083500</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="11">
-        <v>1632643800</v>
+      <c r="E21" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1715422250</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
+        <v>1649330500</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1625067530</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1378976350</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1554315700</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1715422250</v>
+      </c>
+      <c r="J22" s="13">
         <v>1632643800</v>
       </c>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="K22" s="13">
+        <v>1364693200</v>
+      </c>
+      <c r="L22" s="13">
         <v>1630766000</v>
       </c>
-      <c r="H22" s="13">
+      <c r="M22" s="13">
         <v>1627185900</v>
       </c>
-      <c r="I22" s="13">
+      <c r="N22" s="13">
         <v>1591083500</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -925,8 +1150,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -935,8 +1165,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -945,10 +1180,15 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -967,8 +1207,23 @@
       <c r="I26" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -977,102 +1232,167 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>11</v>
+      <c r="E28" s="9">
+        <v>-132</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>-259</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>11</v>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
       </c>
       <c r="G29" s="11">
         <v>0</v>
       </c>
-      <c r="H29" s="11">
-        <v>0</v>
+      <c r="H29" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="I29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>1020359</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>11</v>
+        <v>408187</v>
+      </c>
+      <c r="F30" s="9">
+        <v>608479</v>
       </c>
       <c r="G30" s="9">
+        <v>521243</v>
+      </c>
+      <c r="H30" s="9">
+        <v>748084</v>
+      </c>
+      <c r="I30" s="9">
+        <v>839829</v>
+      </c>
+      <c r="J30" s="9">
+        <v>1020360</v>
+      </c>
+      <c r="K30" s="9">
+        <v>848430</v>
+      </c>
+      <c r="L30" s="9">
         <v>1442520</v>
       </c>
-      <c r="H30" s="9">
+      <c r="M30" s="9">
         <v>1440442</v>
       </c>
-      <c r="I30" s="9">
+      <c r="N30" s="9">
         <v>1404910</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>1020359</v>
+        <v>408055</v>
       </c>
       <c r="F31" s="15">
-        <v>0</v>
+        <v>608479</v>
       </c>
       <c r="G31" s="15">
+        <v>520984</v>
+      </c>
+      <c r="H31" s="15">
+        <v>748084</v>
+      </c>
+      <c r="I31" s="15">
+        <v>839829</v>
+      </c>
+      <c r="J31" s="15">
+        <v>1020360</v>
+      </c>
+      <c r="K31" s="15">
+        <v>848430</v>
+      </c>
+      <c r="L31" s="15">
         <v>1442520</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>1440442</v>
       </c>
-      <c r="I31" s="15">
+      <c r="N31" s="15">
         <v>1404910</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1081,8 +1401,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1091,8 +1416,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1101,10 +1431,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1123,8 +1458,23 @@
       <c r="I35" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1133,80 +1483,130 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>11</v>
+      <c r="E37" s="9">
+        <v>155</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="G37" s="9">
+        <v>162</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
+        <v>247</v>
+      </c>
+      <c r="F39" s="9">
+        <v>375</v>
+      </c>
+      <c r="G39" s="9">
+        <v>378</v>
+      </c>
+      <c r="H39" s="9">
+        <v>481</v>
+      </c>
+      <c r="I39" s="9">
+        <v>490</v>
+      </c>
+      <c r="J39" s="9">
         <v>625</v>
       </c>
-      <c r="F39" s="9">
+      <c r="K39" s="9">
         <v>622</v>
       </c>
-      <c r="G39" s="9">
+      <c r="L39" s="9">
         <v>885</v>
       </c>
-      <c r="H39" s="9">
+      <c r="M39" s="9">
         <v>885</v>
       </c>
-      <c r="I39" s="9">
+      <c r="N39" s="9">
         <v>883</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1215,8 +1615,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1225,8 +1630,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1235,10 +1645,15 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1257,8 +1672,23 @@
       <c r="I43" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1267,41 +1697,61 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>11</v>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>110</v>
+      </c>
+      <c r="G45" s="9">
+        <v>186</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>11</v>
+      <c r="E46" s="11">
+        <v>0</v>
       </c>
       <c r="F46" s="11">
         <v>0</v>
@@ -1309,60 +1759,105 @@
       <c r="G46" s="11">
         <v>0</v>
       </c>
-      <c r="H46" s="11">
-        <v>0</v>
+      <c r="H46" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="I46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
+        <v>-232834</v>
+      </c>
+      <c r="F47" s="9">
+        <v>-259171</v>
+      </c>
+      <c r="G47" s="9">
+        <v>-121304</v>
+      </c>
+      <c r="H47" s="9">
+        <v>-357694</v>
+      </c>
+      <c r="I47" s="9">
+        <v>-442826</v>
+      </c>
+      <c r="J47" s="9">
         <v>-438367</v>
       </c>
-      <c r="F47" s="9">
+      <c r="K47" s="9">
         <v>-381522</v>
       </c>
-      <c r="G47" s="9">
+      <c r="L47" s="9">
         <v>-549891</v>
       </c>
-      <c r="H47" s="9">
+      <c r="M47" s="9">
         <v>-476995</v>
       </c>
-      <c r="I47" s="9">
+      <c r="N47" s="9">
         <v>-614024</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
+        <v>-232834</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-259061</v>
+      </c>
+      <c r="G48" s="15">
+        <v>-121118</v>
+      </c>
+      <c r="H48" s="15">
+        <v>-357694</v>
+      </c>
+      <c r="I48" s="15">
+        <v>-442826</v>
+      </c>
+      <c r="J48" s="15">
         <v>-438367</v>
       </c>
-      <c r="F48" s="15">
+      <c r="K48" s="15">
         <v>-381522</v>
       </c>
-      <c r="G48" s="15">
+      <c r="L48" s="15">
         <v>-549891</v>
       </c>
-      <c r="H48" s="15">
+      <c r="M48" s="15">
         <v>-476995</v>
       </c>
-      <c r="I48" s="15">
+      <c r="N48" s="15">
         <v>-614024</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1371,8 +1866,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1381,8 +1881,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1391,10 +1896,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1413,8 +1923,23 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1423,41 +1948,61 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>11</v>
+      <c r="E54" s="9">
+        <v>-132</v>
+      </c>
+      <c r="F54" s="9">
+        <v>110</v>
+      </c>
+      <c r="G54" s="9">
+        <v>-73</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>11</v>
+      <c r="E55" s="11">
+        <v>0</v>
       </c>
       <c r="F55" s="11">
         <v>0</v>
@@ -1465,56 +2010,101 @@
       <c r="G55" s="11">
         <v>0</v>
       </c>
-      <c r="H55" s="11">
-        <v>0</v>
+      <c r="H55" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="I55" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="11">
+        <v>0</v>
+      </c>
+      <c r="K55" s="11">
+        <v>0</v>
+      </c>
+      <c r="L55" s="11">
+        <v>0</v>
+      </c>
+      <c r="M55" s="11">
+        <v>0</v>
+      </c>
+      <c r="N55" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
+        <v>175353</v>
+      </c>
+      <c r="F56" s="9">
+        <v>349175</v>
+      </c>
+      <c r="G56" s="9">
+        <v>399939</v>
+      </c>
+      <c r="H56" s="9">
+        <v>390390</v>
+      </c>
+      <c r="I56" s="9">
+        <v>397001</v>
+      </c>
+      <c r="J56" s="9">
         <v>581993</v>
       </c>
-      <c r="F56" s="9">
+      <c r="K56" s="9">
         <v>466908</v>
       </c>
-      <c r="G56" s="9">
+      <c r="L56" s="9">
         <v>892629</v>
       </c>
-      <c r="H56" s="9">
+      <c r="M56" s="9">
         <v>963447</v>
       </c>
-      <c r="I56" s="9">
+      <c r="N56" s="9">
         <v>790886</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
+        <v>175221</v>
+      </c>
+      <c r="F57" s="15">
+        <v>349285</v>
+      </c>
+      <c r="G57" s="15">
+        <v>399866</v>
+      </c>
+      <c r="H57" s="15">
+        <v>390390</v>
+      </c>
+      <c r="I57" s="15">
+        <v>397001</v>
+      </c>
+      <c r="J57" s="15">
         <v>581993</v>
       </c>
-      <c r="F57" s="15">
+      <c r="K57" s="15">
         <v>466908</v>
       </c>
-      <c r="G57" s="15">
+      <c r="L57" s="15">
         <v>892629</v>
       </c>
-      <c r="H57" s="15">
+      <c r="M57" s="15">
         <v>963447</v>
       </c>
-      <c r="I57" s="15">
+      <c r="N57" s="15">
         <v>790886</v>
       </c>
     </row>

--- a/database/industries/darou/dekapsul/product/quarterly.xlsx
+++ b/database/industries/darou/dekapsul/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E14967B-BFC6-42D4-94CC-7863AE3A489A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5593DE-5A16-490B-9C1D-4D450B22C636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="31">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -572,12 +572,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -592,7 +592,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -626,7 +626,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -641,7 +641,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -690,7 +690,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -727,7 +727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -742,7 +742,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -757,8 +757,8 @@
       <c r="G10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>16</v>
+      <c r="H10" s="9">
+        <v>0</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -788,74 +788,74 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1295484990</v>
+        <v>1950409450</v>
       </c>
       <c r="F11" s="11">
-        <v>1950409450</v>
+        <v>1518329270</v>
       </c>
       <c r="G11" s="11">
-        <v>1518329270</v>
+        <v>1482260280</v>
       </c>
       <c r="H11" s="11">
-        <v>1482260280</v>
+        <v>1747522533</v>
       </c>
       <c r="I11" s="11">
-        <v>1747522533</v>
+        <v>1602405913</v>
       </c>
       <c r="J11" s="11">
-        <v>1602405913</v>
+        <v>1461425094</v>
       </c>
       <c r="K11" s="11">
-        <v>1461425094</v>
+        <v>1647975740</v>
       </c>
       <c r="L11" s="11">
-        <v>1647975740</v>
+        <v>1633774747</v>
       </c>
       <c r="M11" s="11">
-        <v>1633774747</v>
+        <v>1592843945</v>
       </c>
       <c r="N11" s="11">
-        <v>1592843945</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1383769998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>1295484990</v>
+        <v>1950409450</v>
       </c>
       <c r="F12" s="13">
-        <v>1950409450</v>
+        <v>1518329270</v>
       </c>
       <c r="G12" s="13">
-        <v>1518329270</v>
+        <v>1482260280</v>
       </c>
       <c r="H12" s="13">
-        <v>1482260280</v>
+        <v>1747522533</v>
       </c>
       <c r="I12" s="13">
-        <v>1747522533</v>
+        <v>1602405913</v>
       </c>
       <c r="J12" s="13">
-        <v>1602405913</v>
+        <v>1461425094</v>
       </c>
       <c r="K12" s="13">
-        <v>1461425094</v>
+        <v>1647975740</v>
       </c>
       <c r="L12" s="13">
-        <v>1647975740</v>
+        <v>1633774747</v>
       </c>
       <c r="M12" s="13">
-        <v>1633774747</v>
+        <v>1592843945</v>
       </c>
       <c r="N12" s="13">
-        <v>1592843945</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1383769998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -870,7 +870,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -885,7 +885,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -900,7 +900,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
@@ -937,7 +937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -952,7 +952,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
@@ -961,14 +961,14 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>-850000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
         <v>-1594000</v>
       </c>
+      <c r="G18" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H18" s="9" t="s">
         <v>16</v>
       </c>
@@ -991,7 +991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
@@ -1003,11 +1003,11 @@
       <c r="F19" s="11">
         <v>0</v>
       </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>16</v>
+      <c r="G19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -1037,37 +1037,37 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>1650180500</v>
+        <v>1625067530</v>
       </c>
       <c r="F20" s="9">
-        <v>1625067530</v>
+        <v>1380570350</v>
       </c>
       <c r="G20" s="9">
-        <v>1380570350</v>
-      </c>
-      <c r="H20" s="9">
         <v>1554315700</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>16</v>
+      <c r="H20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1632643800</v>
       </c>
       <c r="J20" s="9">
-        <v>1632643800</v>
+        <v>1364693200</v>
       </c>
       <c r="K20" s="9">
-        <v>1364693200</v>
+        <v>1630766000</v>
       </c>
       <c r="L20" s="9">
-        <v>1630766000</v>
+        <v>1627185900</v>
       </c>
       <c r="M20" s="9">
-        <v>1627185900</v>
+        <v>1591083500</v>
       </c>
       <c r="N20" s="9">
-        <v>1591083500</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1384813600</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
@@ -1082,12 +1082,12 @@
       <c r="G21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="H21" s="11">
         <v>1715422250</v>
       </c>
+      <c r="I21" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="J21" s="11" t="s">
         <v>16</v>
       </c>
@@ -1104,44 +1104,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>1649330500</v>
+        <v>1625067530</v>
       </c>
       <c r="F22" s="13">
-        <v>1625067530</v>
+        <v>1378976350</v>
       </c>
       <c r="G22" s="13">
-        <v>1378976350</v>
+        <v>1554315700</v>
       </c>
       <c r="H22" s="13">
-        <v>1554315700</v>
+        <v>1715422250</v>
       </c>
       <c r="I22" s="13">
-        <v>1715422250</v>
+        <v>1632643800</v>
       </c>
       <c r="J22" s="13">
-        <v>1632643800</v>
+        <v>1364693200</v>
       </c>
       <c r="K22" s="13">
-        <v>1364693200</v>
+        <v>1630766000</v>
       </c>
       <c r="L22" s="13">
-        <v>1630766000</v>
+        <v>1627185900</v>
       </c>
       <c r="M22" s="13">
-        <v>1627185900</v>
+        <v>1591083500</v>
       </c>
       <c r="N22" s="13">
-        <v>1591083500</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1384813600</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1156,7 +1156,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1171,7 +1171,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1186,7 +1186,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1238,7 +1238,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>21</v>
       </c>
@@ -1247,14 +1247,14 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
-        <v>-132</v>
+        <v>0</v>
       </c>
       <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
         <v>-259</v>
       </c>
+      <c r="G28" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H28" s="9" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>15</v>
       </c>
@@ -1291,11 +1291,11 @@
       <c r="F29" s="11">
         <v>0</v>
       </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>16</v>
+      <c r="G29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>17</v>
       </c>
@@ -1325,74 +1325,74 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>408187</v>
+        <v>608479</v>
       </c>
       <c r="F30" s="9">
-        <v>608479</v>
+        <v>521243</v>
       </c>
       <c r="G30" s="9">
-        <v>521243</v>
+        <v>748084</v>
       </c>
       <c r="H30" s="9">
-        <v>748084</v>
+        <v>839829</v>
       </c>
       <c r="I30" s="9">
-        <v>839829</v>
+        <v>1020360</v>
       </c>
       <c r="J30" s="9">
-        <v>1020360</v>
+        <v>848430</v>
       </c>
       <c r="K30" s="9">
-        <v>848430</v>
+        <v>1442520</v>
       </c>
       <c r="L30" s="9">
-        <v>1442520</v>
+        <v>1440442</v>
       </c>
       <c r="M30" s="9">
-        <v>1440442</v>
+        <v>1404910</v>
       </c>
       <c r="N30" s="9">
-        <v>1404910</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1228423</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>408055</v>
+        <v>608479</v>
       </c>
       <c r="F31" s="15">
-        <v>608479</v>
+        <v>520984</v>
       </c>
       <c r="G31" s="15">
-        <v>520984</v>
+        <v>748084</v>
       </c>
       <c r="H31" s="15">
-        <v>748084</v>
+        <v>839829</v>
       </c>
       <c r="I31" s="15">
-        <v>839829</v>
+        <v>1020360</v>
       </c>
       <c r="J31" s="15">
-        <v>1020360</v>
+        <v>848430</v>
       </c>
       <c r="K31" s="15">
-        <v>848430</v>
+        <v>1442520</v>
       </c>
       <c r="L31" s="15">
-        <v>1442520</v>
+        <v>1440442</v>
       </c>
       <c r="M31" s="15">
-        <v>1440442</v>
+        <v>1404910</v>
       </c>
       <c r="N31" s="15">
-        <v>1404910</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1228423</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1407,7 +1407,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1422,7 +1422,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1437,7 +1437,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>25</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1489,7 +1489,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -1497,15 +1497,15 @@
         <v>26</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9">
-        <v>155</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="E37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="9">
         <v>162</v>
       </c>
+      <c r="G37" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H37" s="9" t="s">
         <v>16</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>15</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>17</v>
       </c>
@@ -1576,37 +1576,37 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>247</v>
+        <v>375</v>
       </c>
       <c r="F39" s="9">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G39" s="9">
-        <v>378</v>
+        <v>481</v>
       </c>
       <c r="H39" s="9">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="I39" s="9">
-        <v>490</v>
+        <v>625</v>
       </c>
       <c r="J39" s="9">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="K39" s="9">
-        <v>622</v>
+        <v>885</v>
       </c>
       <c r="L39" s="9">
         <v>885</v>
       </c>
       <c r="M39" s="9">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="N39" s="9">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1621,7 +1621,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1636,7 +1636,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1651,7 +1651,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>29</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1703,7 +1703,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>21</v>
       </c>
@@ -1712,14 +1712,14 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F45" s="9">
-        <v>110</v>
-      </c>
-      <c r="G45" s="9">
         <v>186</v>
       </c>
+      <c r="G45" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H45" s="9" t="s">
         <v>16</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>15</v>
       </c>
@@ -1756,11 +1756,11 @@
       <c r="F46" s="11">
         <v>0</v>
       </c>
-      <c r="G46" s="11">
-        <v>0</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>16</v>
+      <c r="G46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
       </c>
       <c r="I46" s="11">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>17</v>
       </c>
@@ -1790,74 +1790,74 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>-232834</v>
+        <v>-259171</v>
       </c>
       <c r="F47" s="9">
-        <v>-259171</v>
+        <v>-121304</v>
       </c>
       <c r="G47" s="9">
-        <v>-121304</v>
+        <v>-357694</v>
       </c>
       <c r="H47" s="9">
-        <v>-357694</v>
+        <v>-442826</v>
       </c>
       <c r="I47" s="9">
-        <v>-442826</v>
+        <v>-438367</v>
       </c>
       <c r="J47" s="9">
-        <v>-438367</v>
+        <v>-381522</v>
       </c>
       <c r="K47" s="9">
-        <v>-381522</v>
+        <v>-549891</v>
       </c>
       <c r="L47" s="9">
-        <v>-549891</v>
+        <v>-476995</v>
       </c>
       <c r="M47" s="9">
-        <v>-476995</v>
+        <v>-614024</v>
       </c>
       <c r="N47" s="9">
-        <v>-614024</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-429191</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
-        <v>-232834</v>
+        <v>-259061</v>
       </c>
       <c r="F48" s="15">
-        <v>-259061</v>
+        <v>-121118</v>
       </c>
       <c r="G48" s="15">
-        <v>-121118</v>
+        <v>-357694</v>
       </c>
       <c r="H48" s="15">
-        <v>-357694</v>
+        <v>-442826</v>
       </c>
       <c r="I48" s="15">
-        <v>-442826</v>
+        <v>-438367</v>
       </c>
       <c r="J48" s="15">
-        <v>-438367</v>
+        <v>-381522</v>
       </c>
       <c r="K48" s="15">
-        <v>-381522</v>
+        <v>-549891</v>
       </c>
       <c r="L48" s="15">
-        <v>-549891</v>
+        <v>-476995</v>
       </c>
       <c r="M48" s="15">
-        <v>-476995</v>
+        <v>-614024</v>
       </c>
       <c r="N48" s="15">
-        <v>-614024</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-429191</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1872,7 +1872,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1887,7 +1887,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1902,7 +1902,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>30</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1954,7 +1954,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>21</v>
       </c>
@@ -1963,14 +1963,14 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>-132</v>
+        <v>110</v>
       </c>
       <c r="F54" s="9">
-        <v>110</v>
-      </c>
-      <c r="G54" s="9">
         <v>-73</v>
       </c>
+      <c r="G54" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H54" s="9" t="s">
         <v>16</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>15</v>
       </c>
@@ -2007,11 +2007,11 @@
       <c r="F55" s="11">
         <v>0</v>
       </c>
-      <c r="G55" s="11">
-        <v>0</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>16</v>
+      <c r="G55" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
       </c>
       <c r="I55" s="11">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>17</v>
       </c>
@@ -2041,71 +2041,71 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
-        <v>175353</v>
+        <v>349175</v>
       </c>
       <c r="F56" s="9">
-        <v>349175</v>
+        <v>399939</v>
       </c>
       <c r="G56" s="9">
-        <v>399939</v>
+        <v>390390</v>
       </c>
       <c r="H56" s="9">
-        <v>390390</v>
+        <v>397001</v>
       </c>
       <c r="I56" s="9">
-        <v>397001</v>
+        <v>581993</v>
       </c>
       <c r="J56" s="9">
-        <v>581993</v>
+        <v>466908</v>
       </c>
       <c r="K56" s="9">
-        <v>466908</v>
+        <v>892629</v>
       </c>
       <c r="L56" s="9">
-        <v>892629</v>
+        <v>963447</v>
       </c>
       <c r="M56" s="9">
-        <v>963447</v>
+        <v>790886</v>
       </c>
       <c r="N56" s="9">
-        <v>790886</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>799232</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>175221</v>
+        <v>349285</v>
       </c>
       <c r="F57" s="15">
-        <v>349285</v>
+        <v>399866</v>
       </c>
       <c r="G57" s="15">
-        <v>399866</v>
+        <v>390390</v>
       </c>
       <c r="H57" s="15">
-        <v>390390</v>
+        <v>397001</v>
       </c>
       <c r="I57" s="15">
-        <v>397001</v>
+        <v>581993</v>
       </c>
       <c r="J57" s="15">
-        <v>581993</v>
+        <v>466908</v>
       </c>
       <c r="K57" s="15">
-        <v>466908</v>
+        <v>892629</v>
       </c>
       <c r="L57" s="15">
-        <v>892629</v>
+        <v>963447</v>
       </c>
       <c r="M57" s="15">
-        <v>963447</v>
+        <v>790886</v>
       </c>
       <c r="N57" s="15">
-        <v>790886</v>
+        <v>799232</v>
       </c>
     </row>
   </sheetData>
